--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_test\paper\newfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_test\paper\CATNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2D618-22AB-43C6-9030-5E74117560A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A212BCC-7B8A-44B3-AF48-15BFCD05663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6012" yWindow="2556" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1596" yWindow="1452" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,12 +451,12 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
       </c>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>32.99</v>
       </c>
@@ -520,7 +520,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>33.72</v>
       </c>
@@ -534,7 +534,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>33.07</v>
       </c>
@@ -575,7 +575,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>33.74</v>
       </c>
@@ -589,7 +589,21 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>33.93</v>
+      </c>
+      <c r="B8">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C8">
+        <v>32.06</v>
+      </c>
+      <c r="D8">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32.78</v>
       </c>
@@ -606,7 +620,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <v>37.520000000000003</v>
+        <v>36.72</v>
       </c>
       <c r="I11" s="3">
         <v>0.97699999999999998</v>
@@ -618,19 +632,19 @@
         <v>0.87</v>
       </c>
       <c r="L11" s="3">
-        <v>30.53</v>
+        <v>28.53</v>
       </c>
       <c r="M11" s="3">
         <v>0.89600000000000002</v>
       </c>
       <c r="N11" s="3">
-        <v>33.19</v>
+        <v>32.19</v>
       </c>
       <c r="O11" s="2">
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>32.67</v>
       </c>
@@ -653,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>32.659999999999997</v>
       </c>
@@ -676,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32.76</v>
       </c>
@@ -699,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>32.950000000000003</v>
       </c>
